--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/4_fold/11.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/4_fold/11.xlsx
@@ -479,13 +479,13 @@
         <v>-17.75244347529873</v>
       </c>
       <c r="E2" t="n">
-        <v>-11.95534379218399</v>
+        <v>-13.13244655607789</v>
       </c>
       <c r="F2" t="n">
-        <v>3.385850093271053</v>
+        <v>-2.70306574314754</v>
       </c>
       <c r="G2" t="n">
-        <v>-10.98779642757474</v>
+        <v>-10.52383139946966</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-17.50640224839508</v>
       </c>
       <c r="E3" t="n">
-        <v>-12.64983808872619</v>
+        <v>-13.57469145376856</v>
       </c>
       <c r="F3" t="n">
-        <v>3.519993828187379</v>
+        <v>-2.62418461852614</v>
       </c>
       <c r="G3" t="n">
-        <v>-10.64312846296346</v>
+        <v>-10.52970984344559</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-17.23910147176196</v>
       </c>
       <c r="E4" t="n">
-        <v>-13.2447785144599</v>
+        <v>-13.82764783697355</v>
       </c>
       <c r="F4" t="n">
-        <v>3.427797831575944</v>
+        <v>-2.804046674965773</v>
       </c>
       <c r="G4" t="n">
-        <v>-10.19387918325248</v>
+        <v>-10.66020082586908</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-16.97573280028291</v>
       </c>
       <c r="E5" t="n">
-        <v>-13.80093953917643</v>
+        <v>-14.18963691824443</v>
       </c>
       <c r="F5" t="n">
-        <v>3.516066137334861</v>
+        <v>-2.52247051774877</v>
       </c>
       <c r="G5" t="n">
-        <v>-9.921205791967848</v>
+        <v>-10.67794089621961</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-16.70993281917095</v>
       </c>
       <c r="E6" t="n">
-        <v>-14.61259685384923</v>
+        <v>-14.81087978038718</v>
       </c>
       <c r="F6" t="n">
-        <v>3.523293088503494</v>
+        <v>-2.618973881995133</v>
       </c>
       <c r="G6" t="n">
-        <v>-9.487732737181139</v>
+        <v>-10.81330221530022</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-16.45944005380671</v>
       </c>
       <c r="E7" t="n">
-        <v>-15.1569748060082</v>
+        <v>-15.11519726764026</v>
       </c>
       <c r="F7" t="n">
-        <v>3.548430309959608</v>
+        <v>-2.421044447633918</v>
       </c>
       <c r="G7" t="n">
-        <v>-9.140629604241298</v>
+        <v>-11.16197642458107</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-16.23344059381566</v>
       </c>
       <c r="E8" t="n">
-        <v>-16.06931192953389</v>
+        <v>-15.62142424931844</v>
       </c>
       <c r="F8" t="n">
-        <v>3.894459874066428</v>
+        <v>-2.190122410111554</v>
       </c>
       <c r="G8" t="n">
-        <v>-8.559344450371501</v>
+        <v>-10.64720016914724</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-16.02274434254827</v>
       </c>
       <c r="E9" t="n">
-        <v>-16.84895856375867</v>
+        <v>-16.33983818315247</v>
       </c>
       <c r="F9" t="n">
-        <v>3.923393863346642</v>
+        <v>-2.100845997033824</v>
       </c>
       <c r="G9" t="n">
-        <v>-7.933074143937535</v>
+        <v>-10.3627567976079</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-15.81089007238315</v>
       </c>
       <c r="E10" t="n">
-        <v>-17.58418301444148</v>
+        <v>-17.12647610709474</v>
       </c>
       <c r="F10" t="n">
-        <v>4.18445438201066</v>
+        <v>-2.056816582577099</v>
       </c>
       <c r="G10" t="n">
-        <v>-7.240452046701702</v>
+        <v>-9.978982124408384</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-15.60205118896014</v>
       </c>
       <c r="E11" t="n">
-        <v>-18.57781024631144</v>
+        <v>-18.12234212275063</v>
       </c>
       <c r="F11" t="n">
-        <v>4.312470919197057</v>
+        <v>-1.927189692141169</v>
       </c>
       <c r="G11" t="n">
-        <v>-6.946477478693584</v>
+        <v>-9.808690541346055</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-15.38415256598889</v>
       </c>
       <c r="E12" t="n">
-        <v>-19.48538177160273</v>
+        <v>-18.80805148408604</v>
       </c>
       <c r="F12" t="n">
-        <v>4.682433212898553</v>
+        <v>-1.895846719138077</v>
       </c>
       <c r="G12" t="n">
-        <v>-6.290094875723648</v>
+        <v>-9.382653914573446</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-15.13162968312462</v>
       </c>
       <c r="E13" t="n">
-        <v>-20.14079554416238</v>
+        <v>-19.2132713493403</v>
       </c>
       <c r="F13" t="n">
-        <v>4.784081852161714</v>
+        <v>-2.074766129773105</v>
       </c>
       <c r="G13" t="n">
-        <v>-5.562542514506088</v>
+        <v>-8.760154191357897</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-14.85777035569684</v>
       </c>
       <c r="E14" t="n">
-        <v>-21.1110661077627</v>
+        <v>-20.10109968194627</v>
       </c>
       <c r="F14" t="n">
-        <v>5.078134973986882</v>
+        <v>-1.534237314649603</v>
       </c>
       <c r="G14" t="n">
-        <v>-4.774176406588712</v>
+        <v>-7.815099403030742</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-14.56438265740499</v>
       </c>
       <c r="E15" t="n">
-        <v>-21.9178269011727</v>
+        <v>-20.8158739555903</v>
       </c>
       <c r="F15" t="n">
-        <v>5.1850729035981</v>
+        <v>-1.490548300066763</v>
       </c>
       <c r="G15" t="n">
-        <v>-4.396398008090705</v>
+        <v>-7.459054227250001</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-14.245760221118</v>
       </c>
       <c r="E16" t="n">
-        <v>-22.77962773572932</v>
+        <v>-21.36950816585837</v>
       </c>
       <c r="F16" t="n">
-        <v>5.429977520555428</v>
+        <v>-1.410868544972018</v>
       </c>
       <c r="G16" t="n">
-        <v>-3.978897562770903</v>
+        <v>-6.894815251680133</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-13.91363416217934</v>
       </c>
       <c r="E17" t="n">
-        <v>-23.7523334676582</v>
+        <v>-22.17721160507298</v>
       </c>
       <c r="F17" t="n">
-        <v>5.763935981442176</v>
+        <v>-1.242213499764903</v>
       </c>
       <c r="G17" t="n">
-        <v>-3.829239448987133</v>
+        <v>-6.748731336572154</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-13.58514954049256</v>
       </c>
       <c r="E18" t="n">
-        <v>-24.61536497868194</v>
+        <v>-23.25498306730671</v>
       </c>
       <c r="F18" t="n">
-        <v>5.571191099006286</v>
+        <v>-1.155830485615195</v>
       </c>
       <c r="G18" t="n">
-        <v>-3.450688604621465</v>
+        <v>-6.397268466786017</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-13.26425955462173</v>
       </c>
       <c r="E19" t="n">
-        <v>-25.40434642483288</v>
+        <v>-23.73565387383784</v>
       </c>
       <c r="F19" t="n">
-        <v>5.821411190917353</v>
+        <v>-0.8003351865538066</v>
       </c>
       <c r="G19" t="n">
-        <v>-3.290465002444421</v>
+        <v>-6.390486653914003</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>-12.94723585217135</v>
       </c>
       <c r="E20" t="n">
-        <v>-25.82310373122549</v>
+        <v>-24.27009476813994</v>
       </c>
       <c r="F20" t="n">
-        <v>6.022482777960583</v>
+        <v>-0.4468168252215193</v>
       </c>
       <c r="G20" t="n">
-        <v>-2.932979673351091</v>
+        <v>-6.066386697067075</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>-12.65307451914368</v>
       </c>
       <c r="E21" t="n">
-        <v>-26.3647322997877</v>
+        <v>-24.9999382823548</v>
       </c>
       <c r="F21" t="n">
-        <v>5.982053746785333</v>
+        <v>-0.3512168298712356</v>
       </c>
       <c r="G21" t="n">
-        <v>-3.043806016906302</v>
+        <v>-5.759620949182591</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>-12.3835063886921</v>
       </c>
       <c r="E22" t="n">
-        <v>-26.90018130140861</v>
+        <v>-25.567541979755</v>
       </c>
       <c r="F22" t="n">
-        <v>6.065137500618926</v>
+        <v>0.02247677014015158</v>
       </c>
       <c r="G22" t="n">
-        <v>-2.921602462181631</v>
+        <v>-5.95697432221877</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>-12.1265311937457</v>
       </c>
       <c r="E23" t="n">
-        <v>-27.30156512193025</v>
+        <v>-26.12628218813134</v>
       </c>
       <c r="F23" t="n">
-        <v>6.116092743278924</v>
+        <v>0.1199620570996439</v>
       </c>
       <c r="G23" t="n">
-        <v>-3.015853950339217</v>
+        <v>-5.696725526330939</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>-11.8953839056112</v>
       </c>
       <c r="E24" t="n">
-        <v>-27.78291672820915</v>
+        <v>-26.38884832162216</v>
       </c>
       <c r="F24" t="n">
-        <v>6.297447322242514</v>
+        <v>0.3949658782900999</v>
       </c>
       <c r="G24" t="n">
-        <v>-3.326311727625067</v>
+        <v>-5.741501202049642</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>-11.69441793591181</v>
       </c>
       <c r="E25" t="n">
-        <v>-27.82495611263393</v>
+        <v>-26.68803362616128</v>
       </c>
       <c r="F25" t="n">
-        <v>6.114233636275399</v>
+        <v>0.3037910813003196</v>
       </c>
       <c r="G25" t="n">
-        <v>-3.087010616283998</v>
+        <v>-5.463459966599905</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>-11.51707286584498</v>
       </c>
       <c r="E26" t="n">
-        <v>-28.21201695384672</v>
+        <v>-27.23569774633352</v>
       </c>
       <c r="F26" t="n">
-        <v>6.19304929938259</v>
+        <v>0.8803891907527773</v>
       </c>
       <c r="G26" t="n">
-        <v>-3.121888511054356</v>
+        <v>-5.58037423097652</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>-11.36390909603873</v>
       </c>
       <c r="E27" t="n">
-        <v>-28.14743262392848</v>
+        <v>-27.0236155326004</v>
       </c>
       <c r="F27" t="n">
-        <v>6.275111853594529</v>
+        <v>0.7393327199360207</v>
       </c>
       <c r="G27" t="n">
-        <v>-3.10863910057853</v>
+        <v>-5.569468342709362</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>-11.24426590855993</v>
       </c>
       <c r="E28" t="n">
-        <v>-28.41674129338279</v>
+        <v>-27.20316337377183</v>
       </c>
       <c r="F28" t="n">
-        <v>6.061209809766408</v>
+        <v>0.5684388909429704</v>
       </c>
       <c r="G28" t="n">
-        <v>-3.347848565799707</v>
+        <v>-5.598664178046411</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>-11.15458613875088</v>
       </c>
       <c r="E29" t="n">
-        <v>-28.5469573374466</v>
+        <v>-27.09977345823072</v>
       </c>
       <c r="F29" t="n">
-        <v>6.139266119308779</v>
+        <v>0.7280471548864529</v>
       </c>
       <c r="G29" t="n">
-        <v>-3.42971473546902</v>
+        <v>-5.658247248279106</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-11.08012357931159</v>
       </c>
       <c r="E30" t="n">
-        <v>-28.23361925353557</v>
+        <v>-26.79609749381689</v>
       </c>
       <c r="F30" t="n">
-        <v>5.988311867543678</v>
+        <v>0.6230076091872846</v>
       </c>
       <c r="G30" t="n">
-        <v>-3.551617167228331</v>
+        <v>-5.723944423938887</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-11.02905583443284</v>
       </c>
       <c r="E31" t="n">
-        <v>-28.0688395299696</v>
+        <v>-26.52005938070193</v>
       </c>
       <c r="F31" t="n">
-        <v>5.940001270057708</v>
+        <v>0.4198019767808543</v>
       </c>
       <c r="G31" t="n">
-        <v>-3.468572690303263</v>
+        <v>-5.702970554786442</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-10.99368576786645</v>
       </c>
       <c r="E32" t="n">
-        <v>-27.80057824474263</v>
+        <v>-26.29804010911194</v>
       </c>
       <c r="F32" t="n">
-        <v>6.001456539596771</v>
+        <v>0.4770677094105641</v>
       </c>
       <c r="G32" t="n">
-        <v>-3.830980725265082</v>
+        <v>-5.88567364094273</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-10.95505015114699</v>
       </c>
       <c r="E33" t="n">
-        <v>-27.68556236427807</v>
+        <v>-26.13487073879551</v>
       </c>
       <c r="F33" t="n">
-        <v>6.042278339857273</v>
+        <v>0.5408010396440867</v>
       </c>
       <c r="G33" t="n">
-        <v>-4.185913055304276</v>
+        <v>-6.312220867526165</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-10.91119811559068</v>
       </c>
       <c r="E34" t="n">
-        <v>-27.22418961213565</v>
+        <v>-25.72231918394988</v>
       </c>
       <c r="F34" t="n">
-        <v>6.129577815205902</v>
+        <v>0.4858264600116788</v>
       </c>
       <c r="G34" t="n">
-        <v>-4.483618929622285</v>
+        <v>-6.376137489999471</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-10.85819659049456</v>
       </c>
       <c r="E35" t="n">
-        <v>-26.94825623744343</v>
+        <v>-25.30445215415051</v>
       </c>
       <c r="F35" t="n">
-        <v>5.994308142245188</v>
+        <v>0.4429622605078677</v>
       </c>
       <c r="G35" t="n">
-        <v>-4.704420617047995</v>
+        <v>-6.491428308823711</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-10.78465980680089</v>
       </c>
       <c r="E36" t="n">
-        <v>-26.70377057417704</v>
+        <v>-25.0328523316989</v>
       </c>
       <c r="F36" t="n">
-        <v>6.050762152098711</v>
+        <v>0.3897813263647764</v>
       </c>
       <c r="G36" t="n">
-        <v>-4.873625538974463</v>
+        <v>-6.40745427839688</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-10.68362617164395</v>
       </c>
       <c r="E37" t="n">
-        <v>-26.17912272240055</v>
+        <v>-24.70707656008823</v>
       </c>
       <c r="F37" t="n">
-        <v>5.882997383484833</v>
+        <v>0.1255655627159026</v>
       </c>
       <c r="G37" t="n">
-        <v>-5.295001305935417</v>
+        <v>-6.433337761114973</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-10.5640205274453</v>
       </c>
       <c r="E38" t="n">
-        <v>-25.8558344883298</v>
+        <v>-24.04886103472046</v>
       </c>
       <c r="F38" t="n">
-        <v>6.174248752501871</v>
+        <v>0.6109495982700549</v>
       </c>
       <c r="G38" t="n">
-        <v>-5.283676463977323</v>
+        <v>-6.336546366206091</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-10.42779158855087</v>
       </c>
       <c r="E39" t="n">
-        <v>-25.49029739298881</v>
+        <v>-23.72588701591792</v>
       </c>
       <c r="F39" t="n">
-        <v>6.207058063423237</v>
+        <v>0.4477933202564646</v>
       </c>
       <c r="G39" t="n">
-        <v>-5.514271193928645</v>
+        <v>-6.454717491655511</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-10.26915113561155</v>
       </c>
       <c r="E40" t="n">
-        <v>-24.92929221622085</v>
+        <v>-23.28705920926894</v>
       </c>
       <c r="F40" t="n">
-        <v>6.288335079464672</v>
+        <v>0.3056240036981613</v>
       </c>
       <c r="G40" t="n">
-        <v>-5.470019210323611</v>
+        <v>-6.04920959573873</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-10.10606487810077</v>
       </c>
       <c r="E41" t="n">
-        <v>-24.47639018401702</v>
+        <v>-22.78375181112446</v>
       </c>
       <c r="F41" t="n">
-        <v>6.494198449347973</v>
+        <v>0.5043651608355629</v>
       </c>
       <c r="G41" t="n">
-        <v>-5.826391693675394</v>
+        <v>-6.303331193896633</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-9.946674615128821</v>
       </c>
       <c r="E42" t="n">
-        <v>-23.98045375237244</v>
+        <v>-22.45332827200498</v>
       </c>
       <c r="F42" t="n">
-        <v>6.46337916845855</v>
+        <v>0.545422622547216</v>
       </c>
       <c r="G42" t="n">
-        <v>-5.872542061192478</v>
+        <v>-6.340460964755768</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-9.790010755271963</v>
       </c>
       <c r="E43" t="n">
-        <v>-23.35084490871383</v>
+        <v>-21.82006667585354</v>
       </c>
       <c r="F43" t="n">
-        <v>6.407370296901646</v>
+        <v>0.5197093397660659</v>
       </c>
       <c r="G43" t="n">
-        <v>-5.886616286747334</v>
+        <v>-6.020511267909666</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-9.646155967854476</v>
       </c>
       <c r="E44" t="n">
-        <v>-23.02817201287665</v>
+        <v>-21.68869850913966</v>
       </c>
       <c r="F44" t="n">
-        <v>6.599120164321565</v>
+        <v>0.4554785020245578</v>
       </c>
       <c r="G44" t="n">
-        <v>-5.941459943351324</v>
+        <v>-5.844747102259494</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-9.526185320766309</v>
       </c>
       <c r="E45" t="n">
-        <v>-22.3710955178561</v>
+        <v>-20.82188332259465</v>
       </c>
       <c r="F45" t="n">
-        <v>6.483698422468908</v>
+        <v>0.3320442708327644</v>
       </c>
       <c r="G45" t="n">
-        <v>-5.92618122593503</v>
+        <v>-5.951331539693986</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-9.43092056179306</v>
       </c>
       <c r="E46" t="n">
-        <v>-21.83335536323789</v>
+        <v>-20.42296085500726</v>
       </c>
       <c r="F46" t="n">
-        <v>6.267963456242946</v>
+        <v>0.06613960011730802</v>
       </c>
       <c r="G46" t="n">
-        <v>-5.927529733127728</v>
+        <v>-6.008413980083912</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-9.356485893893181</v>
       </c>
       <c r="E47" t="n">
-        <v>-21.16499330316777</v>
+        <v>-19.49914178188939</v>
       </c>
       <c r="F47" t="n">
-        <v>6.482232084550636</v>
+        <v>0.424214082838516</v>
       </c>
       <c r="G47" t="n">
-        <v>-6.024726989424702</v>
+        <v>-5.839601827242696</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-9.314416357381241</v>
       </c>
       <c r="E48" t="n">
-        <v>-20.45080818315162</v>
+        <v>-18.93386851439502</v>
       </c>
       <c r="F48" t="n">
-        <v>6.381630829514812</v>
+        <v>0.1547744903557935</v>
       </c>
       <c r="G48" t="n">
-        <v>-6.215285457286025</v>
+        <v>-6.218833471356133</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-9.304856980153652</v>
       </c>
       <c r="E49" t="n">
-        <v>-19.96961368450681</v>
+        <v>-18.37498429068742</v>
       </c>
       <c r="F49" t="n">
-        <v>6.468170951298622</v>
+        <v>0.241785935041905</v>
       </c>
       <c r="G49" t="n">
-        <v>-6.333364936615553</v>
+        <v>-6.569995218176909</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-9.315693614783772</v>
       </c>
       <c r="E50" t="n">
-        <v>-19.42264345638518</v>
+        <v>-17.8784717977178</v>
       </c>
       <c r="F50" t="n">
-        <v>6.309125656377334</v>
+        <v>0.2203931121985246</v>
       </c>
       <c r="G50" t="n">
-        <v>-6.275915911746059</v>
+        <v>-6.475442607053964</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-9.355321895428881</v>
       </c>
       <c r="E51" t="n">
-        <v>-18.93862102032657</v>
+        <v>-17.36076286644743</v>
       </c>
       <c r="F51" t="n">
-        <v>6.502577523166678</v>
+        <v>0.3003608979557874</v>
       </c>
       <c r="G51" t="n">
-        <v>-6.546429073061803</v>
+        <v>-6.707241828866723</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-9.422635877654843</v>
       </c>
       <c r="E52" t="n">
-        <v>-18.62627795143151</v>
+        <v>-16.8452010728431</v>
       </c>
       <c r="F52" t="n">
-        <v>6.342118259538483</v>
+        <v>0.1284589616439241</v>
       </c>
       <c r="G52" t="n">
-        <v>-6.574760816411298</v>
+        <v>-6.681777299839567</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-9.506425675765078</v>
       </c>
       <c r="E53" t="n">
-        <v>-17.75359741321342</v>
+        <v>-15.79227880140296</v>
       </c>
       <c r="F53" t="n">
-        <v>6.385663258790064</v>
+        <v>0.1717552071415122</v>
       </c>
       <c r="G53" t="n">
-        <v>-6.649400034911978</v>
+        <v>-6.678150731952408</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-9.60165938458427</v>
       </c>
       <c r="E54" t="n">
-        <v>-17.09261941194604</v>
+        <v>-14.97723058029415</v>
       </c>
       <c r="F54" t="n">
-        <v>6.228005747969998</v>
+        <v>0.07157290579662434</v>
       </c>
       <c r="G54" t="n">
-        <v>-7.014832391830236</v>
+        <v>-7.095376238912535</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-9.710117763240151</v>
       </c>
       <c r="E55" t="n">
-        <v>-16.68175676416699</v>
+        <v>-14.43752658024967</v>
       </c>
       <c r="F55" t="n">
-        <v>6.332272847801505</v>
+        <v>0.08745386914363805</v>
       </c>
       <c r="G55" t="n">
-        <v>-7.315405480470583</v>
+        <v>-7.27692720241875</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-9.824960469877437</v>
       </c>
       <c r="E56" t="n">
-        <v>-16.63669305778577</v>
+        <v>-14.33956997038788</v>
       </c>
       <c r="F56" t="n">
-        <v>6.120282280188277</v>
+        <v>-0.104675675058692</v>
       </c>
       <c r="G56" t="n">
-        <v>-7.452979398731441</v>
+        <v>-7.284560014975477</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-9.931581528414522</v>
       </c>
       <c r="E57" t="n">
-        <v>-16.25778872124337</v>
+        <v>-13.85654254934524</v>
       </c>
       <c r="F57" t="n">
-        <v>6.161104080448778</v>
+        <v>0.09600314289928517</v>
       </c>
       <c r="G57" t="n">
-        <v>-7.342035224450654</v>
+        <v>-7.109306449136131</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-10.0363175476664</v>
       </c>
       <c r="E58" t="n">
-        <v>-16.00633795286518</v>
+        <v>-13.7015296836992</v>
       </c>
       <c r="F58" t="n">
-        <v>6.000068755495548</v>
+        <v>-0.04075905258538533</v>
       </c>
       <c r="G58" t="n">
-        <v>-7.540697827771005</v>
+        <v>-7.428719361565722</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-10.13463832579269</v>
       </c>
       <c r="E59" t="n">
-        <v>-15.33239857178449</v>
+        <v>-13.15048774939379</v>
       </c>
       <c r="F59" t="n">
-        <v>5.972732027162023</v>
+        <v>-0.05942867643768671</v>
       </c>
       <c r="G59" t="n">
-        <v>-7.778310032045492</v>
+        <v>-7.958420842239117</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-10.21287770354255</v>
       </c>
       <c r="E60" t="n">
-        <v>-15.08653821671972</v>
+        <v>-12.47963815178375</v>
       </c>
       <c r="F60" t="n">
-        <v>6.06576593115533</v>
+        <v>0.1016590177269108</v>
       </c>
       <c r="G60" t="n">
-        <v>-7.880770394084839</v>
+        <v>-7.969627853471635</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-10.2737624021826</v>
       </c>
       <c r="E61" t="n">
-        <v>-14.82941848121106</v>
+        <v>-12.40286488791986</v>
       </c>
       <c r="F61" t="n">
-        <v>5.974434026531448</v>
+        <v>0.07458413545022133</v>
       </c>
       <c r="G61" t="n">
-        <v>-7.924276116427896</v>
+        <v>-8.226210804563783</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-10.31765548102315</v>
       </c>
       <c r="E62" t="n">
-        <v>-14.46435270877237</v>
+        <v>-12.05281598684063</v>
       </c>
       <c r="F62" t="n">
-        <v>5.889674457934113</v>
+        <v>0.04740451475079802</v>
       </c>
       <c r="G62" t="n">
-        <v>-8.034356198721129</v>
+        <v>-8.196085415724971</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-10.33718886447688</v>
       </c>
       <c r="E63" t="n">
-        <v>-14.04551684856271</v>
+        <v>-11.41884740633573</v>
       </c>
       <c r="F63" t="n">
-        <v>5.797295169082894</v>
+        <v>-0.2752814733892244</v>
       </c>
       <c r="G63" t="n">
-        <v>-8.05112743866138</v>
+        <v>-8.248179688732199</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-10.32887455526734</v>
       </c>
       <c r="E64" t="n">
-        <v>-13.91045665244746</v>
+        <v>-11.17222769770614</v>
       </c>
       <c r="F64" t="n">
-        <v>5.631913199586211</v>
+        <v>-0.2476959913017076</v>
       </c>
       <c r="G64" t="n">
-        <v>-7.889555329291638</v>
+        <v>-8.181003082851301</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-10.30005490850512</v>
       </c>
       <c r="E65" t="n">
-        <v>-13.63047775617715</v>
+        <v>-11.01209574164899</v>
       </c>
       <c r="F65" t="n">
-        <v>5.612327114534988</v>
+        <v>-0.4042930255915931</v>
       </c>
       <c r="G65" t="n">
-        <v>-7.996283782057389</v>
+        <v>-8.462317394011469</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-10.25032996044829</v>
       </c>
       <c r="E66" t="n">
-        <v>-13.53640956025935</v>
+        <v>-11.09706478709179</v>
       </c>
       <c r="F66" t="n">
-        <v>5.599784688412615</v>
+        <v>-0.3821932183947594</v>
       </c>
       <c r="G66" t="n">
-        <v>-8.054780191154221</v>
+        <v>-8.526535139450136</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-10.17139517917066</v>
       </c>
       <c r="E67" t="n">
-        <v>-13.50562955627845</v>
+        <v>-10.82572681069702</v>
       </c>
       <c r="F67" t="n">
-        <v>5.588996630871033</v>
+        <v>-0.6834209221771929</v>
       </c>
       <c r="G67" t="n">
-        <v>-7.989122292402965</v>
+        <v>-8.346175575502517</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-10.07603056827721</v>
       </c>
       <c r="E68" t="n">
-        <v>-13.20275222233796</v>
+        <v>-10.71590857446062</v>
       </c>
       <c r="F68" t="n">
-        <v>5.317121870059749</v>
+        <v>-0.8377268034697762</v>
       </c>
       <c r="G68" t="n">
-        <v>-7.980455187921742</v>
+        <v>-8.260237699649428</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-9.967170079750559</v>
       </c>
       <c r="E69" t="n">
-        <v>-13.22061012341408</v>
+        <v>-10.61295070491329</v>
       </c>
       <c r="F69" t="n">
-        <v>5.27988736077788</v>
+        <v>-1.035944268493509</v>
       </c>
       <c r="G69" t="n">
-        <v>-7.877916272065344</v>
+        <v>-8.098364467314328</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-9.839171031123387</v>
       </c>
       <c r="E70" t="n">
-        <v>-13.210358850289</v>
+        <v>-10.75360131434195</v>
       </c>
       <c r="F70" t="n">
-        <v>5.25409552417968</v>
+        <v>-1.060034105722285</v>
       </c>
       <c r="G70" t="n">
-        <v>-8.001821826159439</v>
+        <v>-8.110985447253752</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-9.69985625277276</v>
       </c>
       <c r="E71" t="n">
-        <v>-13.22894992032426</v>
+        <v>-11.04186763831107</v>
       </c>
       <c r="F71" t="n">
-        <v>5.202616589406013</v>
+        <v>-1.040330189945487</v>
       </c>
       <c r="G71" t="n">
-        <v>-7.863671846573546</v>
+        <v>-7.814536434008548</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-9.556544736112453</v>
       </c>
       <c r="E72" t="n">
-        <v>-13.1791991695257</v>
+        <v>-10.87937906774241</v>
       </c>
       <c r="F72" t="n">
-        <v>4.94773563768329</v>
+        <v>-1.284763484000513</v>
       </c>
       <c r="G72" t="n">
-        <v>-7.87819121042502</v>
+        <v>-7.736938355065638</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-9.408622441832405</v>
       </c>
       <c r="E73" t="n">
-        <v>-13.31156235125555</v>
+        <v>-11.0631819073374</v>
       </c>
       <c r="F73" t="n">
-        <v>4.838886231857179</v>
+        <v>-1.397160903896731</v>
       </c>
       <c r="G73" t="n">
-        <v>-7.51464414511597</v>
+        <v>-7.226076698181486</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-9.255563621924029</v>
       </c>
       <c r="E74" t="n">
-        <v>-13.58631741869201</v>
+        <v>-11.43061738659045</v>
       </c>
       <c r="F74" t="n">
-        <v>4.847972290029337</v>
+        <v>-1.41391905153414</v>
       </c>
       <c r="G74" t="n">
-        <v>-7.217147747643429</v>
+        <v>-6.943950664245131</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-9.109051488232831</v>
       </c>
       <c r="E75" t="n">
-        <v>-13.85828382562319</v>
+        <v>-11.74127154841892</v>
       </c>
       <c r="F75" t="n">
-        <v>4.702150220978192</v>
+        <v>-1.57767757547845</v>
       </c>
       <c r="G75" t="n">
-        <v>-6.989066739837719</v>
+        <v>-6.389596377320766</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-8.971347155219947</v>
       </c>
       <c r="E76" t="n">
-        <v>-13.97577415132483</v>
+        <v>-11.90416598037568</v>
       </c>
       <c r="F76" t="n">
-        <v>4.582565126821867</v>
+        <v>-1.756714816839054</v>
       </c>
       <c r="G76" t="n">
-        <v>-6.914204952188729</v>
+        <v>-6.26569082322667</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-8.834454233063756</v>
       </c>
       <c r="E77" t="n">
-        <v>-14.33727881739058</v>
+        <v>-12.18905449021164</v>
       </c>
       <c r="F77" t="n">
-        <v>4.719484429940637</v>
+        <v>-1.724128075065998</v>
       </c>
       <c r="G77" t="n">
-        <v>-6.78389726200503</v>
+        <v>-6.036981384884558</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-8.711055390236975</v>
       </c>
       <c r="E78" t="n">
-        <v>-14.55834235087312</v>
+        <v>-12.66608563655277</v>
       </c>
       <c r="F78" t="n">
-        <v>4.607911825123448</v>
+        <v>-1.826405144865562</v>
       </c>
       <c r="G78" t="n">
-        <v>-6.481137758790115</v>
+        <v>-5.53426314036796</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-8.603892181987582</v>
       </c>
       <c r="E79" t="n">
-        <v>-14.8780956631766</v>
+        <v>-12.93761999749017</v>
       </c>
       <c r="F79" t="n">
-        <v>4.366044622425401</v>
+        <v>-2.178732106639252</v>
       </c>
       <c r="G79" t="n">
-        <v>-6.472876515696985</v>
+        <v>-5.540089215132528</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-8.507458719749293</v>
       </c>
       <c r="E80" t="n">
-        <v>-15.37200278788071</v>
+        <v>-13.51825053621788</v>
       </c>
       <c r="F80" t="n">
-        <v>4.55331692227345</v>
+        <v>-1.871966358754769</v>
       </c>
       <c r="G80" t="n">
-        <v>-6.406747294043427</v>
+        <v>-5.332536938182645</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-8.425012258757135</v>
       </c>
       <c r="E81" t="n">
-        <v>-15.9333614568254</v>
+        <v>-13.95864941920786</v>
       </c>
       <c r="F81" t="n">
-        <v>4.4100347599736</v>
+        <v>-2.007157477898432</v>
       </c>
       <c r="G81" t="n">
-        <v>-6.274174635468109</v>
+        <v>-5.129017090508013</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-8.361872437130721</v>
       </c>
       <c r="E82" t="n">
-        <v>-16.62912570674325</v>
+        <v>-14.65986006710786</v>
       </c>
       <c r="F82" t="n">
-        <v>4.465048616514533</v>
+        <v>-1.950795114164801</v>
       </c>
       <c r="G82" t="n">
-        <v>-6.202219339049982</v>
+        <v>-5.078245140087799</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-8.31470215824786</v>
       </c>
       <c r="E83" t="n">
-        <v>-17.40619315730822</v>
+        <v>-15.14041304291342</v>
       </c>
       <c r="F83" t="n">
-        <v>4.43074678306921</v>
+        <v>-2.019896288563432</v>
       </c>
       <c r="G83" t="n">
-        <v>-6.123023999160381</v>
+        <v>-5.012377764491076</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-8.275993115677315</v>
       </c>
       <c r="E84" t="n">
-        <v>-18.21955247135045</v>
+        <v>-15.96496627588533</v>
       </c>
       <c r="F84" t="n">
-        <v>4.479162118977914</v>
+        <v>-2.059304120117027</v>
       </c>
       <c r="G84" t="n">
-        <v>-5.842416672353667</v>
+        <v>-4.781350988545977</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-8.25266229126429</v>
       </c>
       <c r="E85" t="n">
-        <v>-19.48658626346417</v>
+        <v>-17.47234856356746</v>
       </c>
       <c r="F85" t="n">
-        <v>4.333261496109719</v>
+        <v>-2.078772374442674</v>
       </c>
       <c r="G85" t="n">
-        <v>-5.538505046488679</v>
+        <v>-4.402944159511569</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-8.2412612700324</v>
       </c>
       <c r="E86" t="n">
-        <v>-20.453753951291</v>
+        <v>-18.62595064386047</v>
       </c>
       <c r="F86" t="n">
-        <v>4.268009458746556</v>
+        <v>-2.097337259872242</v>
       </c>
       <c r="G86" t="n">
-        <v>-5.154730373289163</v>
+        <v>-4.010895150916082</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-8.22892828861416</v>
       </c>
       <c r="E87" t="n">
-        <v>-21.64489166383124</v>
+        <v>-19.55685265281572</v>
       </c>
       <c r="F87" t="n">
-        <v>4.199327238038861</v>
+        <v>-2.321621499853851</v>
       </c>
       <c r="G87" t="n">
-        <v>-5.060387239011685</v>
+        <v>-3.853708962998319</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-8.218849326845049</v>
       </c>
       <c r="E88" t="n">
-        <v>-22.92795043462323</v>
+        <v>-21.05878854251569</v>
       </c>
       <c r="F88" t="n">
-        <v>4.069425409243255</v>
+        <v>-2.396692764348308</v>
       </c>
       <c r="G88" t="n">
-        <v>-4.877972183517916</v>
+        <v>-3.514448119460671</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-8.208118767497441</v>
       </c>
       <c r="E89" t="n">
-        <v>-24.53420579336608</v>
+        <v>-22.50679723681059</v>
       </c>
       <c r="F89" t="n">
-        <v>4.117526529883756</v>
+        <v>-2.383312430844064</v>
       </c>
       <c r="G89" t="n">
-        <v>-5.011644595531939</v>
+        <v>-3.745474895405769</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-8.187319001375618</v>
       </c>
       <c r="E90" t="n">
-        <v>-26.01922642779455</v>
+        <v>-23.86728388660856</v>
       </c>
       <c r="F90" t="n">
-        <v>4.010248200398653</v>
+        <v>-2.350908981310792</v>
       </c>
       <c r="G90" t="n">
-        <v>-4.968937503662229</v>
+        <v>-3.54986279864754</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-8.15307675430374</v>
       </c>
       <c r="E91" t="n">
-        <v>-27.53706946544721</v>
+        <v>-25.41915381934687</v>
       </c>
       <c r="F91" t="n">
-        <v>3.840362478724415</v>
+        <v>-2.399455240247912</v>
       </c>
       <c r="G91" t="n">
-        <v>-4.863190973609607</v>
+        <v>-3.399733361961467</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-8.108357781653378</v>
       </c>
       <c r="E92" t="n">
-        <v>-29.26647102471934</v>
+        <v>-27.08059323456759</v>
       </c>
       <c r="F92" t="n">
-        <v>3.768773766785857</v>
+        <v>-2.395985779994855</v>
       </c>
       <c r="G92" t="n">
-        <v>-5.012574149033702</v>
+        <v>-3.608463946167106</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-8.050031098015651</v>
       </c>
       <c r="E93" t="n">
-        <v>-31.34860540715324</v>
+        <v>-28.94360174433953</v>
       </c>
       <c r="F93" t="n">
-        <v>3.80467286117787</v>
+        <v>-2.256709862364573</v>
       </c>
       <c r="G93" t="n">
-        <v>-5.317402236097609</v>
+        <v>-4.11305438999007</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-7.96987958909931</v>
       </c>
       <c r="E94" t="n">
-        <v>-33.4044635377838</v>
+        <v>-31.18870911254724</v>
       </c>
       <c r="F94" t="n">
-        <v>3.744683929557081</v>
+        <v>-2.261501645204644</v>
       </c>
       <c r="G94" t="n">
-        <v>-5.169930536888407</v>
+        <v>-3.978334593748709</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-7.876677898345041</v>
       </c>
       <c r="E95" t="n">
-        <v>-35.47692270841767</v>
+        <v>-32.79184850321376</v>
       </c>
       <c r="F95" t="n">
-        <v>3.476710674992632</v>
+        <v>-2.312469980167484</v>
       </c>
       <c r="G95" t="n">
-        <v>-5.409873171068721</v>
+        <v>-4.307946410092004</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-7.770788845851212</v>
       </c>
       <c r="E96" t="n">
-        <v>-37.90274313274973</v>
+        <v>-35.1964855815479</v>
       </c>
       <c r="F96" t="n">
-        <v>3.274696442144799</v>
+        <v>-2.011281553293576</v>
       </c>
       <c r="G96" t="n">
-        <v>-5.621431692688172</v>
+        <v>-4.930472317913237</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-7.646866397011791</v>
       </c>
       <c r="E97" t="n">
-        <v>-40.2759194073552</v>
+        <v>-37.4344969216154</v>
       </c>
       <c r="F97" t="n">
-        <v>3.172576479979336</v>
+        <v>-1.895624149989768</v>
       </c>
       <c r="G97" t="n">
-        <v>-6.084414798080132</v>
+        <v>-5.439226114039871</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-7.512682518728729</v>
       </c>
       <c r="E98" t="n">
-        <v>-42.48654164987781</v>
+        <v>-39.59471379819735</v>
       </c>
       <c r="F98" t="n">
-        <v>2.681117615906623</v>
+        <v>-2.201421067463964</v>
       </c>
       <c r="G98" t="n">
-        <v>-6.221412655015953</v>
+        <v>-5.457057830510301</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-7.374950260140744</v>
       </c>
       <c r="E99" t="n">
-        <v>-44.83633507160796</v>
+        <v>-41.76553544008112</v>
       </c>
       <c r="F99" t="n">
-        <v>2.602642352673317</v>
+        <v>-2.297963708618852</v>
       </c>
       <c r="G99" t="n">
-        <v>-6.507688948953135</v>
+        <v>-6.040450845137615</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-7.233495637694864</v>
       </c>
       <c r="E100" t="n">
-        <v>-47.06653030687895</v>
+        <v>-44.15833707664633</v>
       </c>
       <c r="F100" t="n">
-        <v>2.44687013346246</v>
+        <v>-2.427302568392264</v>
       </c>
       <c r="G100" t="n">
-        <v>-6.626671797178742</v>
+        <v>-6.277539357298433</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-7.092534415670356</v>
       </c>
       <c r="E101" t="n">
-        <v>-49.15926945461465</v>
+        <v>-46.0194079255977</v>
       </c>
       <c r="F101" t="n">
-        <v>2.211837112847793</v>
+        <v>-2.399049378859818</v>
       </c>
       <c r="G101" t="n">
-        <v>-6.585038274142053</v>
+        <v>-6.704322245333019</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-6.959943621266647</v>
       </c>
       <c r="E102" t="n">
-        <v>-51.69890126754983</v>
+        <v>-48.66906745161474</v>
       </c>
       <c r="F102" t="n">
-        <v>1.840120450565507</v>
+        <v>-2.139900336410693</v>
       </c>
       <c r="G102" t="n">
-        <v>-6.811836236269273</v>
+        <v>-7.308021421667849</v>
       </c>
     </row>
   </sheetData>
